--- a/PROJECTS MACRO/OUTPUT GELARAN CUTTING/1204/Tarikan Gelaran GCC.xlsx
+++ b/PROJECTS MACRO/OUTPUT GELARAN CUTTING/1204/Tarikan Gelaran GCC.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\bersama\IT\RPA Produksi\OUTPUT GELARAN CUTTING\1204\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6575733-4CB8-4DFD-A029-06A915791038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25146184-C737-4C3C-9A55-CDD17DFFD41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="182984" sheetId="1" r:id="rId1"/>
-    <sheet name="183013" sheetId="2" r:id="rId2"/>
-    <sheet name="183014" sheetId="3" r:id="rId3"/>
-    <sheet name="182977" sheetId="4" r:id="rId4"/>
-    <sheet name="182982" sheetId="5" r:id="rId5"/>
-    <sheet name="183024" sheetId="6" r:id="rId6"/>
-    <sheet name="182976" sheetId="7" r:id="rId7"/>
-    <sheet name="182972" sheetId="8" r:id="rId8"/>
+    <sheet name="183566" sheetId="1" r:id="rId1"/>
+    <sheet name="183525" sheetId="2" r:id="rId2"/>
+    <sheet name="183526" sheetId="3" r:id="rId3"/>
+    <sheet name="183565" sheetId="4" r:id="rId4"/>
+    <sheet name="183524" sheetId="5" r:id="rId5"/>
+    <sheet name="183782" sheetId="6" r:id="rId6"/>
+    <sheet name="183568" sheetId="7" r:id="rId7"/>
+    <sheet name="183562" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" forceFullCalc="1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="79">
   <si>
     <t>Data Cutting</t>
   </si>
@@ -45,7 +45,7 @@
     <t>ITEM</t>
   </si>
   <si>
-    <t>ADIDAS BRF, 5158615</t>
+    <t>ADIDAS BRF, 5159295</t>
   </si>
   <si>
     <t>Line Plan</t>
@@ -57,7 +57,7 @@
     <t>ARTICLE</t>
   </si>
   <si>
-    <t>PO-0000247</t>
+    <t>PO-0000650</t>
   </si>
   <si>
     <t>OVERCUT</t>
@@ -66,202 +66,214 @@
     <t>COLOR</t>
   </si>
   <si>
+    <t>ONIX</t>
+  </si>
+  <si>
+    <t>ORDER QTY</t>
+  </si>
+  <si>
+    <t>DESTINATION</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>MEJA</t>
+  </si>
+  <si>
+    <t>TANGGAL</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>KET</t>
+  </si>
+  <si>
+    <t>TGL SHIPMENT</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>RATIO</t>
+  </si>
+  <si>
+    <t>2024-10-03 06:36:30</t>
+  </si>
+  <si>
+    <t>3,7,8,4</t>
+  </si>
+  <si>
+    <t>BALANCE</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>ADIDAS BRF, 5159296XXL</t>
+  </si>
+  <si>
+    <t>PO-0000648</t>
+  </si>
+  <si>
+    <t>HEATHER BLACK</t>
+  </si>
+  <si>
+    <t>XXL</t>
+  </si>
+  <si>
+    <t>2024-10-11</t>
+  </si>
+  <si>
+    <t>2024-10-03 09:19:51</t>
+  </si>
+  <si>
+    <t>BLACK</t>
+  </si>
+  <si>
+    <t>2024-10-03 09:31:03</t>
+  </si>
+  <si>
+    <t>ADIDAS BRF, 5159307</t>
+  </si>
+  <si>
     <t>GREY</t>
   </si>
   <si>
-    <t>ORDER QTY</t>
-  </si>
-  <si>
-    <t>DESTINATION</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>MEJA</t>
-  </si>
-  <si>
-    <t>TANGGAL</t>
-  </si>
-  <si>
-    <t>SIZE</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>KET</t>
-  </si>
-  <si>
-    <t>TGL SHIPMENT</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>XL</t>
-  </si>
-  <si>
-    <t>ORDER</t>
-  </si>
-  <si>
-    <t>2024-07-19</t>
-  </si>
-  <si>
-    <t>RATIO</t>
-  </si>
-  <si>
-    <t>2024-07-11 08:03:04</t>
-  </si>
-  <si>
-    <t>5,8,7,5</t>
-  </si>
-  <si>
-    <t>BALANCE</t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
-    <t>2024-07-11 09:58:40</t>
-  </si>
-  <si>
-    <t>ADIDAS BRF, 5157994</t>
-  </si>
-  <si>
-    <t>PO-0000249</t>
-  </si>
-  <si>
-    <t>ROYAL BLUE</t>
-  </si>
-  <si>
-    <t>2024-07-11 09:02:07</t>
-  </si>
-  <si>
-    <t>7,3,3,7</t>
-  </si>
-  <si>
-    <t>2024-07-11 14:29:39</t>
-  </si>
-  <si>
-    <t>0,4,4,0</t>
-  </si>
-  <si>
-    <t>ONIX</t>
-  </si>
-  <si>
-    <t>2024-07-11 11:04:33</t>
-  </si>
-  <si>
-    <t>2024-07-11 14:29:19</t>
-  </si>
-  <si>
-    <t>LEGEND INK</t>
-  </si>
-  <si>
-    <t>2024-07-11 14:50:37</t>
-  </si>
-  <si>
-    <t>ADIDAS BRF, 5158002</t>
-  </si>
-  <si>
-    <t>SCARLET</t>
-  </si>
-  <si>
-    <t>2024-07-11 19:29:46</t>
-  </si>
-  <si>
-    <t>3,6,6,3</t>
-  </si>
-  <si>
-    <t>2024-07-11 20:26:31</t>
-  </si>
-  <si>
-    <t>ADIDAS BRF, 5158590XXL</t>
-  </si>
-  <si>
-    <t>XXL</t>
-  </si>
-  <si>
-    <t>2024-07-11 06:53:33</t>
-  </si>
-  <si>
-    <t>ADIDAS BRF, 5158610</t>
-  </si>
-  <si>
-    <t>BLACK/ONIX</t>
-  </si>
-  <si>
-    <t>2024-07-11 08:35:29</t>
-  </si>
-  <si>
-    <t>0,2,2,0</t>
+    <t>2024-10-03 09:22:45</t>
+  </si>
+  <si>
+    <t>2,9,9,5</t>
+  </si>
+  <si>
+    <t>2024-10-03 11:58:18</t>
   </si>
   <si>
     <t>BLUE</t>
   </si>
   <si>
-    <t>2024-07-11 10:43:37</t>
-  </si>
-  <si>
-    <t>2024-07-11 10:44:10</t>
-  </si>
-  <si>
-    <t>PO-0000250</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>2024-07-11 06:07:08</t>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-  </si>
-  <si>
-    <t>ADIDAS BRF, 5158590</t>
-  </si>
-  <si>
-    <t>BLACK</t>
-  </si>
-  <si>
-    <t>2024-07-11 06:42:53</t>
-  </si>
-  <si>
-    <t>3,11,6,</t>
-  </si>
-  <si>
-    <t>ADIDAS BRF, 5158592</t>
-  </si>
-  <si>
-    <t>2024-07-11 10:40:02</t>
+    <t>2024-10-03 20:58:51</t>
+  </si>
+  <si>
+    <t>DARK BLUE</t>
+  </si>
+  <si>
+    <t>2024-10-03 16:42:36</t>
+  </si>
+  <si>
+    <t>ADIDAS BRF, 5159299XXL</t>
+  </si>
+  <si>
+    <t>PINK/BLACK</t>
+  </si>
+  <si>
+    <t>2024-10-03 17:42:41</t>
+  </si>
+  <si>
+    <t>ADIDAS BRF, 5159296</t>
+  </si>
+  <si>
+    <t>AURORA RUBY</t>
+  </si>
+  <si>
+    <t>2024-10-03 13:24:38</t>
+  </si>
+  <si>
+    <t>2,6,6,0</t>
+  </si>
+  <si>
+    <t>2024-10-03 13:25:02</t>
+  </si>
+  <si>
+    <t>2024-10-03 13:26:10</t>
+  </si>
+  <si>
+    <t>ADIDAS BRF, 5159768</t>
+  </si>
+  <si>
+    <t>PO-0000653</t>
+  </si>
+  <si>
+    <t>2024-10-25</t>
+  </si>
+  <si>
+    <t>2024-10-03 16:49:02</t>
+  </si>
+  <si>
+    <t>2,10,10,4</t>
+  </si>
+  <si>
+    <t>2024-10-03 19:52:00</t>
+  </si>
+  <si>
+    <t>2024-10-03 17:39:30</t>
+  </si>
+  <si>
+    <t>ADIDAS BRF, 5158008</t>
+  </si>
+  <si>
+    <t>BLACK 2</t>
+  </si>
+  <si>
+    <t>2XL</t>
+  </si>
+  <si>
+    <t>3XL</t>
+  </si>
+  <si>
+    <t>4XL</t>
+  </si>
+  <si>
+    <t>2024-10-03 14:44:45</t>
+  </si>
+  <si>
+    <t>2,8,4</t>
+  </si>
+  <si>
+    <t>2024-10-03 14:45:24</t>
+  </si>
+  <si>
+    <t>ADIDAS BRF, 5159304</t>
+  </si>
+  <si>
+    <t>ONIX/BLACK</t>
+  </si>
+  <si>
+    <t>2024-10-03 17:40:58</t>
+  </si>
+  <si>
+    <t>2,0,0,0</t>
+  </si>
+  <si>
+    <t>2024-10-03 17:41:37</t>
+  </si>
+  <si>
+    <t>0,2,0,0</t>
+  </si>
+  <si>
+    <t>2024-10-03 17:42:03</t>
   </si>
   <si>
     <t>0,0,2,0</t>
-  </si>
-  <si>
-    <t>2024-07-11 10:41:59</t>
-  </si>
-  <si>
-    <t>1,0,0,1</t>
-  </si>
-  <si>
-    <t>2024-07-11 10:43:05</t>
-  </si>
-  <si>
-    <t>0,3,3,0</t>
-  </si>
-  <si>
-    <t>2024-07-11 12:32:12</t>
-  </si>
-  <si>
-    <t>2,9,9,6</t>
   </si>
 </sst>
 </file>
@@ -674,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34:J34"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,6 +698,7 @@
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="9" width="28.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
@@ -813,19 +826,19 @@
         <v>23</v>
       </c>
       <c r="D11" s="4">
-        <v>360</v>
+        <v>1404</v>
       </c>
       <c r="E11" s="4">
-        <v>576</v>
+        <v>2844</v>
       </c>
       <c r="F11" s="4">
-        <v>540</v>
+        <v>2952</v>
       </c>
       <c r="G11" s="4">
-        <v>360</v>
+        <v>1440</v>
       </c>
       <c r="H11" s="4">
-        <v>1836</v>
+        <v>8640</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
@@ -839,19 +852,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="4">
-        <v>363.6</v>
+        <v>1404</v>
       </c>
       <c r="E12" s="4">
-        <v>581.76</v>
+        <v>2844</v>
       </c>
       <c r="F12" s="4">
-        <v>545.4</v>
+        <v>2952</v>
       </c>
       <c r="G12" s="4">
-        <v>363.6</v>
+        <v>1440</v>
       </c>
       <c r="H12" s="4">
-        <v>1854.36</v>
+        <v>8640</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -881,19 +894,19 @@
         <v>27</v>
       </c>
       <c r="D14" s="5">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="E14" s="5">
-        <v>584</v>
+        <v>700</v>
       </c>
       <c r="F14" s="5">
-        <v>511</v>
+        <v>800</v>
       </c>
       <c r="G14" s="5">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="H14" s="1">
-        <v>1825</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -903,19 +916,19 @@
         <v>16</v>
       </c>
       <c r="D15" s="6">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="E15" s="6">
-        <v>584</v>
+        <v>700</v>
       </c>
       <c r="F15" s="6">
-        <v>511</v>
+        <v>800</v>
       </c>
       <c r="G15" s="6">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="H15" s="6">
-        <v>1825</v>
+        <v>2200</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -927,26 +940,26 @@
         <v>28</v>
       </c>
       <c r="D16" s="6">
-        <v>1.4</v>
+        <v>-1104</v>
       </c>
       <c r="E16" s="6">
-        <v>2.2400000000000002</v>
+        <v>-2144</v>
       </c>
       <c r="F16" s="6">
-        <v>-34.4</v>
+        <v>-2152</v>
       </c>
       <c r="G16" s="6">
-        <v>1.4</v>
+        <v>-1040</v>
       </c>
       <c r="H16" s="6">
-        <v>-29.36</v>
+        <v>-6440</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="19" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -957,263 +970,12 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="I21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="I22" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="4">
-        <v>360</v>
-      </c>
-      <c r="E29" s="4">
-        <v>576</v>
-      </c>
-      <c r="F29" s="4">
-        <v>540</v>
-      </c>
-      <c r="G29" s="4">
-        <v>360</v>
-      </c>
-      <c r="H29" s="4">
-        <v>1836</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="4">
-        <v>363.6</v>
-      </c>
-      <c r="E30" s="4">
-        <v>581.76</v>
-      </c>
-      <c r="F30" s="4">
-        <v>545.4</v>
-      </c>
-      <c r="G30" s="4">
-        <v>363.6</v>
-      </c>
-      <c r="H30" s="4">
-        <v>1854.36</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="5">
-        <v>320</v>
-      </c>
-      <c r="E32" s="5">
-        <v>512</v>
-      </c>
-      <c r="F32" s="5">
-        <v>448</v>
-      </c>
-      <c r="G32" s="5">
-        <v>320</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="6">
-        <v>320</v>
-      </c>
-      <c r="E33" s="6">
-        <v>512</v>
-      </c>
-      <c r="F33" s="6">
-        <v>448</v>
-      </c>
-      <c r="G33" s="6">
-        <v>320</v>
-      </c>
-      <c r="H33" s="6">
-        <v>1600</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="6">
-        <v>-43.6</v>
-      </c>
-      <c r="E34" s="6">
-        <v>-69.760000000000005</v>
-      </c>
-      <c r="F34" s="6">
-        <v>-97.4</v>
-      </c>
-      <c r="G34" s="6">
-        <v>-43.6</v>
-      </c>
-      <c r="H34" s="6">
-        <v>-254.36</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
+      <c r="K19" s="6">
+        <v>2200</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="D27:G27"/>
+  <mergeCells count="14">
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="A16:B16"/>
@@ -1235,10 +997,449 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I54" sqref="I54:J54"/>
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4">
+        <v>432</v>
+      </c>
+      <c r="E11" s="4">
+        <v>432</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4">
+        <v>453.6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>453.6</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5">
+        <v>420</v>
+      </c>
+      <c r="E14" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6">
+        <v>420</v>
+      </c>
+      <c r="E15" s="6">
+        <v>420</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6">
+        <v>-33.6</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-33.6</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4">
+        <v>432</v>
+      </c>
+      <c r="E29" s="4">
+        <v>432</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4">
+        <v>453.6</v>
+      </c>
+      <c r="E30" s="4">
+        <v>453.6</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5">
+        <v>456</v>
+      </c>
+      <c r="E32" s="1">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="6">
+        <v>456</v>
+      </c>
+      <c r="E33" s="6">
+        <v>456</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="E34" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="37" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="6">
+        <v>876</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D21"/>
+    <mergeCell ref="D22"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="D27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="D4"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="D9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,6 +1448,7 @@
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="9" width="28.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
@@ -1268,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1286,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1304,7 +1506,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1374,23 +1576,23 @@
         <v>23</v>
       </c>
       <c r="D11" s="4">
-        <v>504</v>
+        <v>972</v>
       </c>
       <c r="E11" s="4">
-        <v>360</v>
+        <v>2124</v>
       </c>
       <c r="F11" s="4">
-        <v>360</v>
+        <v>2124</v>
       </c>
       <c r="G11" s="4">
-        <v>504</v>
+        <v>1080</v>
       </c>
       <c r="H11" s="4">
-        <v>1728</v>
+        <v>6300</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1400,19 +1602,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="4">
-        <v>504</v>
+        <v>1020.6</v>
       </c>
       <c r="E12" s="4">
-        <v>360</v>
+        <v>2230.1999999999998</v>
       </c>
       <c r="F12" s="4">
-        <v>360</v>
+        <v>2230.1999999999998</v>
       </c>
       <c r="G12" s="4">
-        <v>504</v>
+        <v>1134</v>
       </c>
       <c r="H12" s="4">
-        <v>1728</v>
+        <v>6615</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1436,25 +1638,25 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5">
-        <v>504</v>
+        <v>198</v>
       </c>
       <c r="E14" s="5">
-        <v>216</v>
+        <v>900</v>
       </c>
       <c r="F14" s="5">
-        <v>216</v>
+        <v>897</v>
       </c>
       <c r="G14" s="5">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H14" s="1">
-        <v>1440</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1462,25 +1664,25 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D15" s="5">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E15" s="5">
-        <v>144</v>
+        <v>810</v>
       </c>
       <c r="F15" s="5">
-        <v>144</v>
+        <v>808</v>
       </c>
       <c r="G15" s="5">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H15" s="1">
-        <v>288</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1490,19 +1692,19 @@
         <v>16</v>
       </c>
       <c r="D16" s="6">
-        <v>504</v>
+        <v>378</v>
       </c>
       <c r="E16" s="6">
-        <v>360</v>
+        <v>1710</v>
       </c>
       <c r="F16" s="6">
-        <v>360</v>
+        <v>1705</v>
       </c>
       <c r="G16" s="6">
-        <v>504</v>
+        <v>950</v>
       </c>
       <c r="H16" s="6">
-        <v>1728</v>
+        <v>4743</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -1514,19 +1716,19 @@
         <v>28</v>
       </c>
       <c r="D17" s="6">
-        <v>0</v>
+        <v>-642.6</v>
       </c>
       <c r="E17" s="6">
-        <v>0</v>
+        <v>-520.20000000000005</v>
       </c>
       <c r="F17" s="6">
-        <v>0</v>
+        <v>-525.20000000000005</v>
       </c>
       <c r="G17" s="6">
-        <v>0</v>
+        <v>-184</v>
       </c>
       <c r="H17" s="6">
-        <v>0</v>
+        <v>-1872</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -1550,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -1568,7 +1770,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -1586,7 +1788,7 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1656,23 +1858,23 @@
         <v>23</v>
       </c>
       <c r="D30" s="4">
-        <v>504</v>
+        <v>972</v>
       </c>
       <c r="E30" s="4">
-        <v>360</v>
+        <v>2124</v>
       </c>
       <c r="F30" s="4">
-        <v>360</v>
+        <v>2124</v>
       </c>
       <c r="G30" s="4">
-        <v>504</v>
+        <v>1080</v>
       </c>
       <c r="H30" s="4">
-        <v>1728</v>
+        <v>6300</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1682,19 +1884,19 @@
         <v>7</v>
       </c>
       <c r="D31" s="4">
-        <v>504</v>
+        <v>1020.6</v>
       </c>
       <c r="E31" s="4">
-        <v>360</v>
+        <v>2230.1999999999998</v>
       </c>
       <c r="F31" s="4">
-        <v>360</v>
+        <v>2230.1999999999998</v>
       </c>
       <c r="G31" s="4">
-        <v>504</v>
+        <v>1134</v>
       </c>
       <c r="H31" s="4">
-        <v>1728</v>
+        <v>6615</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -1715,121 +1917,113 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D33" s="5">
-        <v>504</v>
+        <v>96</v>
       </c>
       <c r="E33" s="5">
-        <v>216</v>
+        <v>432</v>
       </c>
       <c r="F33" s="5">
-        <v>216</v>
+        <v>432</v>
       </c>
       <c r="G33" s="5">
-        <v>504</v>
+        <v>240</v>
       </c>
       <c r="H33" s="1">
-        <v>1440</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <v>144</v>
-      </c>
-      <c r="F34" s="5">
-        <v>144</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>288</v>
-      </c>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="6">
+        <v>96</v>
+      </c>
+      <c r="E34" s="6">
+        <v>432</v>
+      </c>
+      <c r="F34" s="6">
+        <v>432</v>
+      </c>
+      <c r="G34" s="6">
+        <v>240</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1200</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D35" s="6">
-        <v>504</v>
+        <v>-924.6</v>
       </c>
       <c r="E35" s="6">
-        <v>360</v>
+        <v>-1798.2</v>
       </c>
       <c r="F35" s="6">
-        <v>360</v>
+        <v>-1798.2</v>
       </c>
       <c r="G35" s="6">
-        <v>504</v>
+        <v>-894</v>
       </c>
       <c r="H35" s="6">
-        <v>1728</v>
+        <v>-5415</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="6">
+    <row r="38" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A38" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="39" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A39" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="I40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
         <v>31</v>
@@ -1839,7 +2033,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="I41" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J41" t="s">
         <v>4</v>
@@ -1847,250 +2041,250 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="I42" t="s">
-        <v>7</v>
-      </c>
-      <c r="J42" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="D47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="4">
+        <v>972</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2124</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2124</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1080</v>
+      </c>
+      <c r="H48" s="4">
+        <v>6300</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D49" s="4">
-        <v>504</v>
+        <v>1020.6</v>
       </c>
       <c r="E49" s="4">
-        <v>360</v>
+        <v>2230.1999999999998</v>
       </c>
       <c r="F49" s="4">
-        <v>360</v>
+        <v>2230.1999999999998</v>
       </c>
       <c r="G49" s="4">
-        <v>504</v>
+        <v>1134</v>
       </c>
       <c r="H49" s="4">
-        <v>1728</v>
+        <v>6615</v>
       </c>
       <c r="I49" s="4"/>
-      <c r="J49" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="4">
-        <v>504</v>
-      </c>
-      <c r="E50" s="4">
-        <v>360</v>
-      </c>
-      <c r="F50" s="4">
-        <v>360</v>
-      </c>
-      <c r="G50" s="4">
-        <v>504</v>
-      </c>
-      <c r="H50" s="4">
-        <v>1728</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="5">
-        <v>420</v>
-      </c>
-      <c r="E52" s="5">
-        <v>180</v>
-      </c>
-      <c r="F52" s="5">
-        <v>180</v>
-      </c>
-      <c r="G52" s="5">
-        <v>420</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="5">
+        <v>142</v>
+      </c>
+      <c r="E51" s="5">
+        <v>639</v>
+      </c>
+      <c r="F51" s="5">
+        <v>639</v>
+      </c>
+      <c r="G51" s="5">
+        <v>355</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="6">
+        <v>142</v>
+      </c>
+      <c r="E52" s="6">
+        <v>639</v>
+      </c>
+      <c r="F52" s="6">
+        <v>639</v>
+      </c>
+      <c r="G52" s="6">
+        <v>355</v>
+      </c>
+      <c r="H52" s="6">
+        <v>1775</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D53" s="6">
-        <v>420</v>
+        <v>-878.6</v>
       </c>
       <c r="E53" s="6">
-        <v>180</v>
+        <v>-1591.2</v>
       </c>
       <c r="F53" s="6">
-        <v>180</v>
+        <v>-1591.2</v>
       </c>
       <c r="G53" s="6">
-        <v>420</v>
+        <v>-779</v>
       </c>
       <c r="H53" s="6">
-        <v>1200</v>
+        <v>-4840</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="6">
-        <v>-84</v>
-      </c>
-      <c r="E54" s="6">
-        <v>-180</v>
-      </c>
-      <c r="F54" s="6">
-        <v>-180</v>
-      </c>
-      <c r="G54" s="6">
-        <v>-84</v>
-      </c>
-      <c r="H54" s="6">
-        <v>-528</v>
-      </c>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
+    <row r="56" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="6">
+        <v>7718</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="J47:J48"/>
+  <mergeCells count="40">
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="I52:J52"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="D40:G40"/>
     <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="J28:J29"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="I34:J34"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="A28:A32"/>
@@ -2115,330 +2309,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J17"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="9" width="28.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4">
-        <v>648</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1548</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1440</v>
-      </c>
-      <c r="G11" s="4">
-        <v>612</v>
-      </c>
-      <c r="H11" s="4">
-        <v>4248</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4">
-        <v>648</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1548</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1440</v>
-      </c>
-      <c r="G12" s="4">
-        <v>612</v>
-      </c>
-      <c r="H12" s="4">
-        <v>4248</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="5">
-        <v>210</v>
-      </c>
-      <c r="E14" s="5">
-        <v>420</v>
-      </c>
-      <c r="F14" s="5">
-        <v>420</v>
-      </c>
-      <c r="G14" s="5">
-        <v>209</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="5">
-        <v>165</v>
-      </c>
-      <c r="E15" s="5">
-        <v>330</v>
-      </c>
-      <c r="F15" s="5">
-        <v>330</v>
-      </c>
-      <c r="G15" s="5">
-        <v>165</v>
-      </c>
-      <c r="H15" s="1">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="6">
-        <v>375</v>
-      </c>
-      <c r="E16" s="6">
-        <v>750</v>
-      </c>
-      <c r="F16" s="6">
-        <v>750</v>
-      </c>
-      <c r="G16" s="6">
-        <v>374</v>
-      </c>
-      <c r="H16" s="6">
-        <v>2249</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="6">
-        <v>-273</v>
-      </c>
-      <c r="E17" s="6">
-        <v>-798</v>
-      </c>
-      <c r="F17" s="6">
-        <v>-690</v>
-      </c>
-      <c r="G17" s="6">
-        <v>-238</v>
-      </c>
-      <c r="H17" s="6">
-        <v>-1999</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:G16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,6 +2323,7 @@
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="6" width="28.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -2465,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="9"/>
       <c r="F3" t="s">
@@ -2495,7 +2372,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2540,7 +2417,7 @@
       <c r="B10" s="10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -2553,10 +2430,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="4">
-        <v>648</v>
+        <v>1332</v>
       </c>
       <c r="E11" s="4">
-        <v>648</v>
+        <v>1332</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -2570,10 +2447,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="4">
-        <v>654.48</v>
+        <v>1332</v>
       </c>
       <c r="E12" s="4">
-        <v>654.48</v>
+        <v>1332</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2591,19 +2468,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
       <c r="D14" s="5">
-        <v>527</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1">
-        <v>527</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2613,10 +2490,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="6">
-        <v>527</v>
+        <v>18</v>
       </c>
       <c r="E15" s="6">
-        <v>527</v>
+        <v>18</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -2628,20 +2505,35 @@
         <v>28</v>
       </c>
       <c r="D16" s="6">
-        <v>-127.48</v>
+        <v>-1314</v>
       </c>
       <c r="E16" s="6">
-        <v>-127.48</v>
+        <v>-1314</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
+    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="6">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A19:G19"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D3"/>
     <mergeCell ref="D4"/>
@@ -2658,10 +2550,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I52" sqref="I52:J52"/>
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,6 +2562,7 @@
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="9" width="28.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
@@ -2691,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2709,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2727,7 +2620,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2797,23 +2690,23 @@
         <v>23</v>
       </c>
       <c r="D11" s="4">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="E11" s="4">
-        <v>540</v>
+        <v>1188</v>
       </c>
       <c r="F11" s="4">
-        <v>540</v>
+        <v>1188</v>
       </c>
       <c r="G11" s="4">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="H11" s="4">
-        <v>1800</v>
+        <v>3204</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2823,19 +2716,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="4">
-        <v>363.6</v>
+        <v>415.8</v>
       </c>
       <c r="E12" s="4">
-        <v>545.4</v>
+        <v>1247.4000000000001</v>
       </c>
       <c r="F12" s="4">
-        <v>545.4</v>
+        <v>1247.4000000000001</v>
       </c>
       <c r="G12" s="4">
-        <v>363.6</v>
+        <v>453.6</v>
       </c>
       <c r="H12" s="4">
-        <v>1818</v>
+        <v>3364.2</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -2859,25 +2752,25 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
       <c r="D14" s="5">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E14" s="5">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="F14" s="5">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>140</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2887,19 +2780,19 @@
         <v>16</v>
       </c>
       <c r="D15" s="6">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E15" s="6">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="F15" s="6">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>140</v>
+        <v>392</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -2911,19 +2804,19 @@
         <v>28</v>
       </c>
       <c r="D16" s="6">
-        <v>-363.6</v>
+        <v>-359.8</v>
       </c>
       <c r="E16" s="6">
-        <v>-475.4</v>
+        <v>-1079.4000000000001</v>
       </c>
       <c r="F16" s="6">
-        <v>-475.4</v>
+        <v>-1079.4000000000001</v>
       </c>
       <c r="G16" s="6">
-        <v>-363.6</v>
+        <v>-453.6</v>
       </c>
       <c r="H16" s="6">
-        <v>-1678</v>
+        <v>-2972.2</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -2947,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -2965,7 +2858,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -2983,7 +2876,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3053,23 +2946,23 @@
         <v>23</v>
       </c>
       <c r="D29" s="4">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="E29" s="4">
-        <v>540</v>
+        <v>1188</v>
       </c>
       <c r="F29" s="4">
-        <v>540</v>
+        <v>1188</v>
       </c>
       <c r="G29" s="4">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="H29" s="4">
-        <v>1800</v>
+        <v>3204</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3079,19 +2972,19 @@
         <v>7</v>
       </c>
       <c r="D30" s="4">
-        <v>363.6</v>
+        <v>415.8</v>
       </c>
       <c r="E30" s="4">
-        <v>545.4</v>
+        <v>1247.4000000000001</v>
       </c>
       <c r="F30" s="4">
-        <v>545.4</v>
+        <v>1247.4000000000001</v>
       </c>
       <c r="G30" s="4">
-        <v>363.6</v>
+        <v>453.6</v>
       </c>
       <c r="H30" s="4">
-        <v>1818</v>
+        <v>3364.2</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -3115,25 +3008,25 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E32" s="5">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F32" s="5">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="G32" s="5">
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>68</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -3143,19 +3036,19 @@
         <v>16</v>
       </c>
       <c r="D33" s="6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E33" s="6">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F33" s="6">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="H33" s="6">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
@@ -3167,19 +3060,19 @@
         <v>28</v>
       </c>
       <c r="D34" s="6">
-        <v>-363.6</v>
+        <v>-389.8</v>
       </c>
       <c r="E34" s="6">
-        <v>-511.4</v>
+        <v>-1169.4000000000001</v>
       </c>
       <c r="F34" s="6">
-        <v>-511.4</v>
+        <v>-1169.4000000000001</v>
       </c>
       <c r="G34" s="6">
-        <v>-363.6</v>
+        <v>-453.6</v>
       </c>
       <c r="H34" s="6">
-        <v>-1750</v>
+        <v>-3182.2</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
@@ -3203,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -3221,7 +3114,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -3239,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3309,23 +3202,23 @@
         <v>23</v>
       </c>
       <c r="D47" s="4">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="E47" s="4">
-        <v>540</v>
+        <v>1188</v>
       </c>
       <c r="F47" s="4">
-        <v>540</v>
+        <v>1188</v>
       </c>
       <c r="G47" s="4">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="H47" s="4">
-        <v>1800</v>
+        <v>3204</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3335,24 +3228,24 @@
         <v>7</v>
       </c>
       <c r="D48" s="4">
-        <v>363.6</v>
+        <v>415.8</v>
       </c>
       <c r="E48" s="4">
-        <v>545.4</v>
+        <v>1247.4000000000001</v>
       </c>
       <c r="F48" s="4">
-        <v>545.4</v>
+        <v>1247.4000000000001</v>
       </c>
       <c r="G48" s="4">
-        <v>363.6</v>
+        <v>453.6</v>
       </c>
       <c r="H48" s="4">
-        <v>1818</v>
+        <v>3364.2</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="2" t="s">
@@ -3366,82 +3259,100 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" s="5">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E50" s="5">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="F50" s="5">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="G50" s="5">
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="6">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E51" s="6">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="F51" s="6">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="G51" s="6">
         <v>0</v>
       </c>
       <c r="H51" s="6">
-        <v>68</v>
+        <v>392</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="6">
-        <v>-363.6</v>
+        <v>-359.8</v>
       </c>
       <c r="E52" s="6">
-        <v>-511.4</v>
+        <v>-1079.4000000000001</v>
       </c>
       <c r="F52" s="6">
-        <v>-511.4</v>
+        <v>-1079.4000000000001</v>
       </c>
       <c r="G52" s="6">
-        <v>-363.6</v>
+        <v>-453.6</v>
       </c>
       <c r="H52" s="6">
-        <v>-1750</v>
+        <v>-2972.2</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
     </row>
+    <row r="55" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="6">
+        <v>966</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
+    <mergeCell ref="A55:J55"/>
     <mergeCell ref="J45:J46"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="I51:J51"/>
@@ -3488,10 +3399,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:J16"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3500,6 +3411,7 @@
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="9" width="28.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
@@ -3521,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3539,7 +3451,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -3557,7 +3469,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3627,23 +3539,23 @@
         <v>23</v>
       </c>
       <c r="D11" s="4">
-        <v>360</v>
+        <v>6588</v>
       </c>
       <c r="E11" s="4">
-        <v>360</v>
+        <v>20628</v>
       </c>
       <c r="F11" s="4">
-        <v>360</v>
+        <v>14580</v>
       </c>
       <c r="G11" s="4">
-        <v>360</v>
+        <v>5184</v>
       </c>
       <c r="H11" s="4">
-        <v>1440</v>
+        <v>46980</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3653,19 +3565,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="4">
-        <v>363.6</v>
+        <v>6588</v>
       </c>
       <c r="E12" s="4">
-        <v>363.6</v>
+        <v>20628</v>
       </c>
       <c r="F12" s="4">
-        <v>363.6</v>
+        <v>14580</v>
       </c>
       <c r="G12" s="4">
-        <v>363.6</v>
+        <v>5184</v>
       </c>
       <c r="H12" s="4">
-        <v>1454.4</v>
+        <v>46980</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -3689,81 +3601,151 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="5">
+        <v>200</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="5">
+        <v>400</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="5">
-        <v>19</v>
-      </c>
-      <c r="E14" s="5">
-        <v>19</v>
-      </c>
-      <c r="F14" s="5">
-        <v>19</v>
-      </c>
-      <c r="G14" s="5">
-        <v>19</v>
-      </c>
-      <c r="H14" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="5">
+        <v>200</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="5">
+        <v>400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="5">
+        <v>199</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="5">
+        <v>400</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="6">
-        <v>19</v>
-      </c>
-      <c r="E15" s="6">
-        <v>19</v>
-      </c>
-      <c r="F15" s="6">
-        <v>19</v>
-      </c>
-      <c r="G15" s="6">
-        <v>19</v>
-      </c>
-      <c r="H15" s="6">
-        <v>76</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="6" t="s">
+      <c r="D17" s="6">
+        <v>599</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1200</v>
+      </c>
+      <c r="H17" s="6">
+        <v>7799</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6">
-        <v>-344.6</v>
-      </c>
-      <c r="E16" s="6">
-        <v>-344.6</v>
-      </c>
-      <c r="F16" s="6">
-        <v>-344.6</v>
-      </c>
-      <c r="G16" s="6">
-        <v>-344.6</v>
-      </c>
-      <c r="H16" s="6">
-        <v>-1378.4</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="D18" s="6">
+        <v>-5989</v>
+      </c>
+      <c r="E18" s="6">
+        <v>-17628</v>
+      </c>
+      <c r="F18" s="6">
+        <v>-11580</v>
+      </c>
+      <c r="G18" s="6">
+        <v>-3984</v>
+      </c>
+      <c r="H18" s="6">
+        <v>-39181</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="21" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="6">
+        <v>7799</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
+  <mergeCells count="14">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A21:J21"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
@@ -3780,10 +3762,543 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:J16"/>
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4">
+        <v>180</v>
+      </c>
+      <c r="E11" s="4">
+        <v>720</v>
+      </c>
+      <c r="F11" s="4">
+        <v>360</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1260</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4">
+        <v>180</v>
+      </c>
+      <c r="E12" s="4">
+        <v>720</v>
+      </c>
+      <c r="F12" s="4">
+        <v>360</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1260</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="5">
+        <v>160</v>
+      </c>
+      <c r="E14" s="5">
+        <v>640</v>
+      </c>
+      <c r="F14" s="5">
+        <v>320</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6">
+        <v>160</v>
+      </c>
+      <c r="E15" s="6">
+        <v>640</v>
+      </c>
+      <c r="F15" s="6">
+        <v>320</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1120</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6">
+        <v>-20</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-80</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-40</v>
+      </c>
+      <c r="G16" s="6">
+        <v>-140</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4">
+        <v>180</v>
+      </c>
+      <c r="E29" s="4">
+        <v>720</v>
+      </c>
+      <c r="F29" s="4">
+        <v>360</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1260</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4">
+        <v>180</v>
+      </c>
+      <c r="E30" s="4">
+        <v>720</v>
+      </c>
+      <c r="F30" s="4">
+        <v>360</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1260</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="5">
+        <v>40</v>
+      </c>
+      <c r="E32" s="5">
+        <v>160</v>
+      </c>
+      <c r="F32" s="5">
+        <v>80</v>
+      </c>
+      <c r="G32" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="6">
+        <v>40</v>
+      </c>
+      <c r="E33" s="6">
+        <v>160</v>
+      </c>
+      <c r="F33" s="6">
+        <v>80</v>
+      </c>
+      <c r="G33" s="6">
+        <v>280</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="6">
+        <v>-140</v>
+      </c>
+      <c r="E34" s="6">
+        <v>-560</v>
+      </c>
+      <c r="F34" s="6">
+        <v>-280</v>
+      </c>
+      <c r="G34" s="6">
+        <v>-980</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="37" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="6">
+        <v>1400</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3792,6 +4307,7 @@
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="9" width="28.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
@@ -3813,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3849,7 +4365,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3919,19 +4435,19 @@
         <v>23</v>
       </c>
       <c r="D11" s="4">
-        <v>792</v>
+        <v>1368</v>
       </c>
       <c r="E11" s="4">
-        <v>2412</v>
+        <v>2772</v>
       </c>
       <c r="F11" s="4">
-        <v>2052</v>
+        <v>3132</v>
       </c>
       <c r="G11" s="4">
-        <v>900</v>
+        <v>1548</v>
       </c>
       <c r="H11" s="4">
-        <v>6156</v>
+        <v>8820</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
@@ -3945,19 +4461,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="4">
-        <v>799.92</v>
+        <v>1368</v>
       </c>
       <c r="E12" s="4">
-        <v>2436.12</v>
+        <v>2772</v>
       </c>
       <c r="F12" s="4">
-        <v>2072.52</v>
+        <v>3132</v>
       </c>
       <c r="G12" s="4">
-        <v>909</v>
+        <v>1548</v>
       </c>
       <c r="H12" s="4">
-        <v>6217.56</v>
+        <v>8820</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -3978,425 +4494,133 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D14" s="5">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="E14" s="5">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="6">
-        <v>162</v>
-      </c>
-      <c r="E15" s="6">
-        <v>594</v>
-      </c>
-      <c r="F15" s="6">
-        <v>324</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1080</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="6">
-        <v>-637.91999999999996</v>
-      </c>
-      <c r="E16" s="6">
-        <v>-1842.12</v>
-      </c>
-      <c r="F16" s="6">
-        <v>-1748.52</v>
-      </c>
-      <c r="G16" s="6">
-        <v>-909</v>
-      </c>
-      <c r="H16" s="6">
-        <v>-5137.5600000000004</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36:J36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="9" width="28.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1080</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2700</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2808</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1224</v>
-      </c>
-      <c r="H11" s="4">
-        <v>7812</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1090.8</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2727</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2836.08</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1236.24</v>
-      </c>
-      <c r="H12" s="4">
-        <v>7890.12</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>36</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D15" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
       </c>
       <c r="G15" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D16" s="5">
         <v>0</v>
       </c>
       <c r="E16" s="5">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E17" s="6">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="F17" s="6">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="G17" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H17" s="6">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="6">
-        <v>-1078.8</v>
+        <v>-1360</v>
       </c>
       <c r="E18" s="6">
-        <v>-2607</v>
+        <v>-2758</v>
       </c>
       <c r="F18" s="6">
-        <v>-2680.08</v>
+        <v>-3124</v>
       </c>
       <c r="G18" s="6">
-        <v>-1224.24</v>
+        <v>-1548</v>
       </c>
       <c r="H18" s="6">
-        <v>-7590.12</v>
+        <v>-8790</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="21" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -4407,263 +4631,12 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="I23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="I24" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1080</v>
-      </c>
-      <c r="E31" s="4">
-        <v>2700</v>
-      </c>
-      <c r="F31" s="4">
-        <v>2808</v>
-      </c>
-      <c r="G31" s="4">
-        <v>1224</v>
-      </c>
-      <c r="H31" s="4">
-        <v>7812</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1090.8</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2727</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2836.08</v>
-      </c>
-      <c r="G32" s="4">
-        <v>1236.24</v>
-      </c>
-      <c r="H32" s="4">
-        <v>7890.12</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="5">
-        <v>58</v>
-      </c>
-      <c r="E34" s="5">
-        <v>261</v>
-      </c>
-      <c r="F34" s="5">
-        <v>261</v>
-      </c>
-      <c r="G34" s="5">
-        <v>174</v>
-      </c>
-      <c r="H34" s="1">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="6">
-        <v>58</v>
-      </c>
-      <c r="E35" s="6">
-        <v>261</v>
-      </c>
-      <c r="F35" s="6">
-        <v>261</v>
-      </c>
-      <c r="G35" s="6">
-        <v>174</v>
-      </c>
-      <c r="H35" s="6">
-        <v>754</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="6">
-        <v>-1032.8</v>
-      </c>
-      <c r="E36" s="6">
-        <v>-2466</v>
-      </c>
-      <c r="F36" s="6">
-        <v>-2575.08</v>
-      </c>
-      <c r="G36" s="6">
-        <v>-1062.24</v>
-      </c>
-      <c r="H36" s="6">
-        <v>-7136.12</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
+      <c r="K21" s="6">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="D29:G29"/>
+  <mergeCells count="14">
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="A18:B18"/>
